--- a/files/excelFilesforFigures/Figure13.xlsx
+++ b/files/excelFilesforFigures/Figure13.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551DEDF2-3357-4D6E-8234-C2C08912DA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7818A3-70DC-4EA3-9449-4246E19119CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,49 +203,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>660</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1099</c:v>
+                  <c:v>2225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1156</c:v>
+                  <c:v>2904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1329</c:v>
+                  <c:v>2836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1310</c:v>
+                  <c:v>2773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1334</c:v>
+                  <c:v>2984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1446</c:v>
+                  <c:v>3364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1452</c:v>
+                  <c:v>3072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1446</c:v>
+                  <c:v>3352</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1333</c:v>
+                  <c:v>3378</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1327</c:v>
+                  <c:v>3229</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1285</c:v>
+                  <c:v>3522</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1367</c:v>
+                  <c:v>3494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1327</c:v>
+                  <c:v>3831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,49 +371,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,46 +524,46 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.75</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.75</c:v>
@@ -1904,7 +1904,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="A3" sqref="A3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>828</v>
       </c>
       <c r="C3" s="1">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D3" s="1">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,13 +1944,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>660</v>
+        <v>2072</v>
       </c>
       <c r="C4" s="1">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D4" s="1">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,13 +1958,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1099</v>
+        <v>2225</v>
       </c>
       <c r="C5" s="1">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="1">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,13 +1972,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1156</v>
+        <v>2904</v>
       </c>
       <c r="C6" s="1">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="D6" s="1">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,13 +1986,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1329</v>
+        <v>2836</v>
       </c>
       <c r="C7" s="1">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="D7" s="1">
-        <v>0.97</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,13 +2000,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1310</v>
+        <v>2773</v>
       </c>
       <c r="C8" s="1">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="D8" s="1">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,13 +2014,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1334</v>
+        <v>2984</v>
       </c>
       <c r="C9" s="1">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="D9" s="1">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1446</v>
+        <v>3364</v>
       </c>
       <c r="C10" s="1">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="D10" s="1">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,13 +2042,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1452</v>
+        <v>3072</v>
       </c>
       <c r="C11" s="1">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="D11" s="1">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,13 +2056,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1446</v>
+        <v>3352</v>
       </c>
       <c r="C12" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D12" s="1">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,13 +2070,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1333</v>
+        <v>3378</v>
       </c>
       <c r="C13" s="1">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="D13" s="1">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1327</v>
+        <v>3229</v>
       </c>
       <c r="C14" s="1">
         <v>0.68</v>
@@ -2098,13 +2098,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1285</v>
+        <v>3522</v>
       </c>
       <c r="C15" s="1">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="D15" s="1">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,13 +2112,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1367</v>
+        <v>3494</v>
       </c>
       <c r="C16" s="1">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="D16" s="1">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,10 +2126,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1327</v>
+        <v>3831</v>
       </c>
       <c r="C17" s="1">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="D17" s="1">
         <v>0.75</v>

--- a/files/excelFilesforFigures/Figure13.xlsx
+++ b/files/excelFilesforFigures/Figure13.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7818A3-70DC-4EA3-9449-4246E19119CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611F77D-12C2-4A83-B544-A5C101701E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+  <si>
+    <t>UBF</t>
+  </si>
   <si>
     <t>SSR</t>
   </si>
@@ -28,18 +31,53 @@
     <t>ARF</t>
   </si>
   <si>
-    <t>LUBF</t>
+    <t>SSR (normalized)</t>
+  </si>
+  <si>
+    <t>LUBF (normalized)</t>
   </si>
   <si>
     <t>FTS</t>
+  </si>
+  <si>
+    <t>FTS(normalized)</t>
+  </si>
+  <si>
+    <t>SUT2-OARF</t>
+  </si>
+  <si>
+    <t>TPAT(normalized)</t>
+  </si>
+  <si>
+    <t>TPAT</t>
+  </si>
+  <si>
+    <t>DO NOT ERASE BELOW</t>
+  </si>
+  <si>
+    <t>SUT3-HARF</t>
+  </si>
+  <si>
+    <t>SUT3-OARF</t>
+  </si>
+  <si>
+    <t>SUT2-HARF/OARF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -67,9 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,185 +144,240 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11853314692231674"/>
-          <c:y val="6.1935475480758548E-2"/>
-          <c:w val="0.76856672057562359"/>
-          <c:h val="0.84059158134243461"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$2</c:f>
+              <c:f>Feuil1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUBF</c:v>
+                  <c:v>SUT2-HARF/OARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="3.2323211756486593E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0864072028177061E-16"/>
+                  <c:y val="1.6161605878243297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5033-436A-9561-DA0CAA11BFE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$A$3:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+            <c:strRef>
+              <c:f>Feuil1!$B$7:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>ARF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>LUBF (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>SSR (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>FTS(normalized)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>TPAT(normalized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$3:$B$17</c:f>
+              <c:f>Feuil1!$B$8:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>828</c:v>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2072</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2904</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2836</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2773</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2984</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3364</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3072</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3352</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3378</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3229</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3522</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3494</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3831</c:v>
+                  <c:v>0.60580994519076248</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>83.028186799459903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-24CC-48D2-A666-7ABA3C710C4E}"/>
+              <c16:uniqueId val="{00000000-E20E-4AA6-8EEE-5ED36BC62115}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1188160128"/>
-        <c:axId val="1185336880"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$2</c:f>
+              <c:f>Feuil1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SSR</c:v>
+                  <c:v>SUT3-HARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,117 +407,55 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$A$3:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+            <c:strRef>
+              <c:f>Feuil1!$B$7:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>ARF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>LUBF (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>SSR (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>FTS(normalized)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>TPAT(normalized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$3:$C$17</c:f>
+              <c:f>Feuil1!$B$9:$F$9</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.98</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>155.15658627146024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>157.06563706563702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78</c:v>
+                  <c:v>177.10569142826415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.69</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-24CC-48D2-A666-7ABA3C710C4E}"/>
+              <c16:uniqueId val="{00000001-E20E-4AA6-8EEE-5ED36BC62115}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -430,11 +464,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$2</c:f>
+              <c:f>Feuil1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FTS</c:v>
+                  <c:v>SUT3-OARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -442,139 +476,77 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Feuil1!$A$3:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+            <c:strRef>
+              <c:f>Feuil1!$B$7:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>ARF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>LUBF (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>SSR (normalized)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>FTS(normalized)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>TPAT(normalized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$3:$D$17</c:f>
+              <c:f>Feuil1!$B$10:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.95</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>166.10038610038598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>176.57338741363031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.75</c:v>
+                  <c:v>139.9836284370534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E84-4319-9E54-8D7A9A4829CF}"/>
+              <c16:uniqueId val="{00000000-F42E-4A8D-AAE4-E564682A2698}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -586,76 +558,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1130139264"/>
-        <c:axId val="1185338128"/>
-      </c:lineChart>
+        <c:axId val="976732784"/>
+        <c:axId val="1052710768"/>
+      </c:radarChart>
       <c:catAx>
-        <c:axId val="1188160128"/>
+        <c:axId val="976732784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>ARF (Arrival Rate Factor)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -693,7 +605,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185336880"/>
+        <c:crossAx val="1052710768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185336880"/>
+        <c:axId val="1052710768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,71 +633,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>LUBF</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (Long-term Unit Benefit Factor (cents/second)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -817,148 +664,10 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188160128"/>
+        <c:crossAx val="976732784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="1185338128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t>SSR</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="600" baseline="0">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
-                  <a:t> (SLO Satisfaction Rate) / FTS (Fairness between the Tenants' Satisfcaction)</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR" sz="600">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.94637793681073445"/>
-              <c:y val="0.18577352750027057"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1130139264"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1130139264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1185338128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -968,17 +677,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.62882292320255684"/>
-          <c:y val="8.0532459039889634E-2"/>
-          <c:w val="0.25951431660194951"/>
-          <c:h val="9.0754884308403436E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1093,7 +792,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1297,22 +996,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1417,8 +1117,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1550,19 +1250,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1599,29 +1300,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485777</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Graphique 14">
+        <xdr:cNvPr id="11" name="Graphique 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0499D058-0E51-480E-83DC-3BBF8993BDD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CD7084-7C28-4D9D-86D6-BAAD41CF47FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1901,239 +1600,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D17"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>46.280840510628998</v>
+      </c>
+      <c r="D2">
+        <v>0.89310344827586197</v>
+      </c>
+      <c r="E2">
+        <v>0.79843820807925203</v>
+      </c>
+      <c r="F2">
+        <v>1553.90779578616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
+      </c>
+      <c r="C3">
+        <v>11853.184782468299</v>
+      </c>
+      <c r="D3">
+        <v>0.77931034482758599</v>
+      </c>
+      <c r="E3">
+        <v>0.78559972724788996</v>
+      </c>
+      <c r="F3">
+        <v>716.76748187594603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>13751.096953831</v>
+      </c>
+      <c r="D4">
+        <v>0.82413793103448196</v>
+      </c>
+      <c r="E4">
+        <v>0.78323855022790301</v>
+      </c>
+      <c r="F4">
+        <v>921.66597035799805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>828</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.95</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <f>B2</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:E10" si="0">C2/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
+        <v>0.60580994519076248</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F8" s="4">
+        <f>MIN(F$2:F$4)/F2*MAX($B$8:$B$10)</f>
+        <v>83.028186799459903</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2072</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.96</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>B3</f>
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>155.15658627146024</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>157.06563706563702</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>177.10569142826415</v>
+      </c>
+      <c r="F9">
+        <f>MIN(F$2:F$4)/F3*MAX($B$8:$B$10)</f>
+        <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2225</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.83</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f>B4</f>
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>166.10038610038598</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>176.57338741363031</v>
+      </c>
+      <c r="F10">
+        <f>MIN(F$2:F$4)/F4*MAX($B$8:$B$10)</f>
+        <v>139.9836284370534</v>
+      </c>
+      <c r="H10">
+        <f>(F4-F3)/F3</f>
+        <v>0.28586465438664344</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2904</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.8</v>
-      </c>
+    <row r="30" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2836</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.79</v>
-      </c>
+    <row r="31" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2773</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.79</v>
-      </c>
+    <row r="32" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2984</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.78</v>
-      </c>
+    <row r="33" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3364</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.78</v>
-      </c>
+    <row r="34" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3072</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3352</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3378</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3229</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3522</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>3494</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3831</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.75</v>
-      </c>
+    <row r="35" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/excelFilesforFigures/Figure13.xlsx
+++ b/files/excelFilesforFigures/Figure13.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611F77D-12C2-4A83-B544-A5C101701E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CA992-951F-4F06-806F-6D177AC32622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>UBF</t>
   </si>
@@ -43,9 +43,6 @@
     <t>FTS(normalized)</t>
   </si>
   <si>
-    <t>SUT2-OARF</t>
-  </si>
-  <si>
     <t>TPAT(normalized)</t>
   </si>
   <si>
@@ -61,7 +58,16 @@
     <t>SUT3-OARF</t>
   </si>
   <si>
-    <t>SUT2-HARF/OARF</t>
+    <t>SUT2b+-OARF</t>
+  </si>
+  <si>
+    <t>SUT2b+-HARF/OARF</t>
+  </si>
+  <si>
+    <t>SUT3b-HARF</t>
+  </si>
+  <si>
+    <t>SUT3b-OARF</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUT2-HARF/OARF</c:v>
+                  <c:v>SUT2b+-HARF/OARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -348,7 +354,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60580994519076248</c:v>
+                  <c:v>0.60580994535130528</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>180</c:v>
@@ -357,7 +363,7 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0">
-                  <c:v>83.028186799459903</c:v>
+                  <c:v>83.028186790820385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,7 +383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUT3-HARF</c:v>
+                  <c:v>SUT3b-HARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -439,13 +445,13 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155.15658627146024</c:v>
+                  <c:v>155.15658628237657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157.06563706563702</c:v>
+                  <c:v>157.06563714890058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.10569142826415</c:v>
+                  <c:v>177.10569138995913</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>180</c:v>
@@ -468,7 +474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SUT3-OARF</c:v>
+                  <c:v>SUT3b-OARF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -533,13 +539,13 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166.10038610038598</c:v>
+                  <c:v>166.10038614474144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>176.57338741363031</c:v>
+                  <c:v>176.5733873797783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.9836284370534</c:v>
+                  <c:v>139.9836284353718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,7 +1609,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,67 +1631,67 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>46.280840510628998</v>
+        <v>46.280840509999997</v>
       </c>
       <c r="D2">
-        <v>0.89310344827586197</v>
+        <v>0.89310344799999997</v>
       </c>
       <c r="E2">
-        <v>0.79843820807925203</v>
+        <v>0.79843820799999998</v>
       </c>
       <c r="F2">
-        <v>1553.90779578616</v>
+        <v>1553.907796</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>180</v>
       </c>
       <c r="C3">
-        <v>11853.184782468299</v>
+        <v>11853.18478</v>
       </c>
       <c r="D3">
-        <v>0.77931034482758599</v>
+        <v>0.77931034499999996</v>
       </c>
       <c r="E3">
-        <v>0.78559972724788996</v>
+        <v>0.78559972700000003</v>
       </c>
       <c r="F3">
-        <v>716.76748187594603</v>
+        <v>716.76748190000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>90</v>
       </c>
       <c r="C4">
-        <v>13751.096953831</v>
+        <v>13751.096949999999</v>
       </c>
       <c r="D4">
-        <v>0.82413793103448196</v>
+        <v>0.82413793099999999</v>
       </c>
       <c r="E4">
-        <v>0.78323855022790301</v>
+        <v>0.78323854999999998</v>
       </c>
       <c r="F4">
-        <v>921.66597035799805</v>
+        <v>921.66597039999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1694,7 +1700,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1724,7 +1730,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:E10" si="0">C2/MAX(C$2:C$4)*MAX($B$8:$B$10)</f>
-        <v>0.60580994519076248</v>
+        <v>0.60580994535130528</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -1736,12 +1742,12 @@
       </c>
       <c r="F8" s="4">
         <f>MIN(F$2:F$4)/F2*MAX($B$8:$B$10)</f>
-        <v>83.028186799459903</v>
+        <v>83.028186790820385</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <f>B3</f>
@@ -1749,15 +1755,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>155.15658627146024</v>
+        <v>155.15658628237657</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>157.06563706563702</v>
+        <v>157.06563714890058</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>177.10569142826415</v>
+        <v>177.10569138995913</v>
       </c>
       <c r="F9">
         <f>MIN(F$2:F$4)/F3*MAX($B$8:$B$10)</f>
@@ -1766,7 +1772,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <f>B4</f>
@@ -1778,19 +1784,19 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>166.10038610038598</v>
+        <v>166.10038614474144</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>176.57338741363031</v>
+        <v>176.5733873797783</v>
       </c>
       <c r="F10">
         <f>MIN(F$2:F$4)/F4*MAX($B$8:$B$10)</f>
-        <v>139.9836284370534</v>
+        <v>139.9836284353718</v>
       </c>
       <c r="H10">
         <f>(F4-F3)/F3</f>
-        <v>0.28586465438664344</v>
+        <v>0.28586465440209025</v>
       </c>
     </row>
     <row r="30" spans="22:23" x14ac:dyDescent="0.25">
